--- a/Team-Data/2011-12/3-31-2011-12.xlsx
+++ b/Team-Data/2011-12/3-31-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" t="n">
         <v>31</v>
       </c>
       <c r="F2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2" t="n">
-        <v>0.574</v>
+        <v>0.585</v>
       </c>
       <c r="H2" t="n">
         <v>49.1</v>
@@ -684,19 +751,19 @@
         <v>36.1</v>
       </c>
       <c r="J2" t="n">
-        <v>81.2</v>
+        <v>81.3</v>
       </c>
       <c r="K2" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L2" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M2" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="N2" t="n">
-        <v>0.369</v>
+        <v>0.37</v>
       </c>
       <c r="O2" t="n">
         <v>15.1</v>
@@ -711,13 +778,13 @@
         <v>10.2</v>
       </c>
       <c r="S2" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="T2" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U2" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="V2" t="n">
         <v>14.1</v>
@@ -729,28 +796,28 @@
         <v>4.7</v>
       </c>
       <c r="Y2" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z2" t="n">
         <v>18.1</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.59999999999999</v>
+        <v>94.7</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
       </c>
       <c r="AE2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG2" t="n">
         <v>9</v>
@@ -759,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="AI2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ2" t="n">
         <v>16</v>
@@ -774,10 +841,10 @@
         <v>14</v>
       </c>
       <c r="AN2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP2" t="n">
         <v>24</v>
@@ -792,28 +859,28 @@
         <v>11</v>
       </c>
       <c r="AT2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU2" t="n">
         <v>9</v>
       </c>
       <c r="AV2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AW2" t="n">
         <v>12</v>
       </c>
       <c r="AX2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ2" t="n">
         <v>6</v>
       </c>
       <c r="BA2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB2" t="n">
         <v>20</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-31-2011-12</t>
+          <t>2012-03-31</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>1.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AE3" t="n">
         <v>11</v>
@@ -962,7 +1029,7 @@
         <v>21</v>
       </c>
       <c r="AP3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ3" t="n">
         <v>6</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-31-2011-12</t>
+          <t>2012-03-31</t>
         </is>
       </c>
     </row>
@@ -1030,37 +1097,37 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G4" t="n">
-        <v>0.14</v>
+        <v>0.143</v>
       </c>
       <c r="H4" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="I4" t="n">
-        <v>33.6</v>
+        <v>33.5</v>
       </c>
       <c r="J4" t="n">
-        <v>80.8</v>
+        <v>80.7</v>
       </c>
       <c r="K4" t="n">
-        <v>0.416</v>
+        <v>0.415</v>
       </c>
       <c r="L4" t="n">
         <v>4.1</v>
       </c>
       <c r="M4" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3</v>
+        <v>0.298</v>
       </c>
       <c r="O4" t="n">
         <v>16.5</v>
@@ -1069,25 +1136,25 @@
         <v>22</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.753</v>
+        <v>0.751</v>
       </c>
       <c r="R4" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="S4" t="n">
         <v>28.9</v>
       </c>
       <c r="T4" t="n">
-        <v>39</v>
+        <v>39.1</v>
       </c>
       <c r="U4" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="V4" t="n">
         <v>14.2</v>
       </c>
       <c r="W4" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="X4" t="n">
         <v>5.6</v>
@@ -1096,19 +1163,19 @@
         <v>5.9</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AA4" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AB4" t="n">
-        <v>87.90000000000001</v>
+        <v>87.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>-12.7</v>
+        <v>-12.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1120,13 +1187,13 @@
         <v>30</v>
       </c>
       <c r="AH4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
       </c>
       <c r="AJ4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK4" t="n">
         <v>30</v>
@@ -1147,7 +1214,7 @@
         <v>15</v>
       </c>
       <c r="AQ4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AR4" t="n">
         <v>26</v>
@@ -1171,7 +1238,7 @@
         <v>6</v>
       </c>
       <c r="AY4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ4" t="n">
         <v>12</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-31-2011-12</t>
+          <t>2012-03-31</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE5" t="n">
         <v>1</v>
@@ -1305,7 +1372,7 @@
         <v>28</v>
       </c>
       <c r="AI5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-31-2011-12</t>
+          <t>2012-03-31</t>
         </is>
       </c>
     </row>
@@ -1394,37 +1461,37 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" t="n">
         <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" t="n">
-        <v>0.34</v>
+        <v>0.347</v>
       </c>
       <c r="H6" t="n">
         <v>48.3</v>
       </c>
       <c r="I6" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="J6" t="n">
-        <v>81.09999999999999</v>
+        <v>81.3</v>
       </c>
       <c r="K6" t="n">
-        <v>0.423</v>
+        <v>0.424</v>
       </c>
       <c r="L6" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M6" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.349</v>
+        <v>0.351</v>
       </c>
       <c r="O6" t="n">
         <v>18</v>
@@ -1433,22 +1500,22 @@
         <v>25.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.703</v>
+        <v>0.705</v>
       </c>
       <c r="R6" t="n">
         <v>12.9</v>
       </c>
       <c r="S6" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T6" t="n">
-        <v>42.9</v>
+        <v>43</v>
       </c>
       <c r="U6" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="V6" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="W6" t="n">
         <v>7.4</v>
@@ -1460,19 +1527,19 @@
         <v>6.3</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA6" t="n">
         <v>21.4</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.3</v>
+        <v>93.7</v>
       </c>
       <c r="AC6" t="n">
-        <v>-5.9</v>
+        <v>-5.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE6" t="n">
         <v>26</v>
@@ -1481,13 +1548,13 @@
         <v>23</v>
       </c>
       <c r="AG6" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI6" t="n">
         <v>26</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>28</v>
       </c>
       <c r="AJ6" t="n">
         <v>17</v>
@@ -1502,7 +1569,7 @@
         <v>16</v>
       </c>
       <c r="AN6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO6" t="n">
         <v>9</v>
@@ -1526,7 +1593,7 @@
         <v>21</v>
       </c>
       <c r="AV6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW6" t="n">
         <v>18</v>
@@ -1535,7 +1602,7 @@
         <v>27</v>
       </c>
       <c r="AY6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ6" t="n">
         <v>23</v>
@@ -1544,10 +1611,10 @@
         <v>5</v>
       </c>
       <c r="BB6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-31-2011-12</t>
+          <t>2012-03-31</t>
         </is>
       </c>
     </row>
@@ -1654,19 +1721,19 @@
         <v>1.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG7" t="n">
         <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI7" t="n">
         <v>19</v>
@@ -1681,7 +1748,7 @@
         <v>6</v>
       </c>
       <c r="AM7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN7" t="n">
         <v>21</v>
@@ -1708,7 +1775,7 @@
         <v>13</v>
       </c>
       <c r="AV7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW7" t="n">
         <v>4</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-31-2011-12</t>
+          <t>2012-03-31</t>
         </is>
       </c>
     </row>
@@ -1836,10 +1903,10 @@
         <v>1.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF8" t="n">
         <v>14</v>
@@ -1863,7 +1930,7 @@
         <v>16</v>
       </c>
       <c r="AM8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN8" t="n">
         <v>23</v>
@@ -1893,7 +1960,7 @@
         <v>28</v>
       </c>
       <c r="AW8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX8" t="n">
         <v>13</v>
@@ -1902,7 +1969,7 @@
         <v>30</v>
       </c>
       <c r="AZ8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-31-2011-12</t>
+          <t>2012-03-31</t>
         </is>
       </c>
     </row>
@@ -1940,37 +2007,37 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" t="n">
         <v>33</v>
       </c>
       <c r="G9" t="n">
-        <v>0.365</v>
+        <v>0.353</v>
       </c>
       <c r="H9" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I9" t="n">
-        <v>34.4</v>
+        <v>34.2</v>
       </c>
       <c r="J9" t="n">
-        <v>79.3</v>
+        <v>79.2</v>
       </c>
       <c r="K9" t="n">
-        <v>0.434</v>
+        <v>0.432</v>
       </c>
       <c r="L9" t="n">
         <v>4.5</v>
       </c>
       <c r="M9" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="N9" t="n">
-        <v>0.344</v>
+        <v>0.343</v>
       </c>
       <c r="O9" t="n">
         <v>16.6</v>
@@ -1979,16 +2046,16 @@
         <v>21.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.759</v>
+        <v>0.76</v>
       </c>
       <c r="R9" t="n">
         <v>11.9</v>
       </c>
       <c r="S9" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="T9" t="n">
-        <v>39.9</v>
+        <v>39.8</v>
       </c>
       <c r="U9" t="n">
         <v>18.6</v>
@@ -2012,28 +2079,28 @@
         <v>19.6</v>
       </c>
       <c r="AB9" t="n">
-        <v>89.90000000000001</v>
+        <v>89.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>-5.5</v>
+        <v>-5.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AE9" t="n">
         <v>23</v>
       </c>
       <c r="AF9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG9" t="n">
         <v>23</v>
       </c>
       <c r="AH9" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AI9" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AJ9" t="n">
         <v>24</v>
@@ -2057,10 +2124,10 @@
         <v>18</v>
       </c>
       <c r="AQ9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS9" t="n">
         <v>30</v>
@@ -2075,7 +2142,7 @@
         <v>27</v>
       </c>
       <c r="AW9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX9" t="n">
         <v>30</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-31-2011-12</t>
+          <t>2012-03-31</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE10" t="n">
         <v>22</v>
@@ -2215,7 +2282,7 @@
         <v>17</v>
       </c>
       <c r="AI10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ10" t="n">
         <v>13</v>
@@ -2224,7 +2291,7 @@
         <v>7</v>
       </c>
       <c r="AL10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM10" t="n">
         <v>8</v>
@@ -2233,7 +2300,7 @@
         <v>2</v>
       </c>
       <c r="AO10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP10" t="n">
         <v>29</v>
@@ -2245,7 +2312,7 @@
         <v>29</v>
       </c>
       <c r="AS10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT10" t="n">
         <v>28</v>
@@ -2257,7 +2324,7 @@
         <v>6</v>
       </c>
       <c r="AW10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX10" t="n">
         <v>7</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-31-2011-12</t>
+          <t>2012-03-31</t>
         </is>
       </c>
     </row>
@@ -2382,10 +2449,10 @@
         <v>0.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF11" t="n">
         <v>14</v>
@@ -2397,10 +2464,10 @@
         <v>5</v>
       </c>
       <c r="AI11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>7</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>6</v>
       </c>
       <c r="AK11" t="n">
         <v>11</v>
@@ -2427,10 +2494,10 @@
         <v>15</v>
       </c>
       <c r="AS11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU11" t="n">
         <v>16</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-31-2011-12</t>
+          <t>2012-03-31</t>
         </is>
       </c>
     </row>
@@ -2486,55 +2553,55 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12" t="n">
         <v>30</v>
       </c>
       <c r="F12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G12" t="n">
-        <v>0.588</v>
+        <v>0.6</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>35.2</v>
+        <v>35</v>
       </c>
       <c r="J12" t="n">
         <v>80.5</v>
       </c>
       <c r="K12" t="n">
-        <v>0.437</v>
+        <v>0.435</v>
       </c>
       <c r="L12" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="M12" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="N12" t="n">
-        <v>0.369</v>
+        <v>0.37</v>
       </c>
       <c r="O12" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="P12" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="Q12" t="n">
         <v>0.776</v>
       </c>
       <c r="R12" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="S12" t="n">
         <v>31</v>
       </c>
       <c r="T12" t="n">
-        <v>43.1</v>
+        <v>43.3</v>
       </c>
       <c r="U12" t="n">
         <v>18.2</v>
@@ -2549,34 +2616,34 @@
         <v>5.3</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z12" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>96.2</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AE12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG12" t="n">
         <v>7</v>
       </c>
-      <c r="AG12" t="n">
-        <v>8</v>
-      </c>
       <c r="AH12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI12" t="n">
         <v>23</v>
@@ -2585,7 +2652,7 @@
         <v>21</v>
       </c>
       <c r="AK12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL12" t="n">
         <v>19</v>
@@ -2594,7 +2661,7 @@
         <v>22</v>
       </c>
       <c r="AN12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO12" t="n">
         <v>3</v>
@@ -2606,7 +2673,7 @@
         <v>7</v>
       </c>
       <c r="AR12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS12" t="n">
         <v>12</v>
@@ -2621,7 +2688,7 @@
         <v>13</v>
       </c>
       <c r="AW12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX12" t="n">
         <v>11</v>
@@ -2639,7 +2706,7 @@
         <v>16</v>
       </c>
       <c r="BC12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-31-2011-12</t>
+          <t>2012-03-31</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E13" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F13" t="n">
         <v>21</v>
       </c>
       <c r="G13" t="n">
-        <v>0.596</v>
+        <v>0.588</v>
       </c>
       <c r="H13" t="n">
         <v>48.5</v>
@@ -2686,19 +2753,19 @@
         <v>36.6</v>
       </c>
       <c r="J13" t="n">
-        <v>81</v>
+        <v>81.2</v>
       </c>
       <c r="K13" t="n">
-        <v>0.452</v>
+        <v>0.45</v>
       </c>
       <c r="L13" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="M13" t="n">
         <v>21.5</v>
       </c>
       <c r="N13" t="n">
-        <v>0.351</v>
+        <v>0.349</v>
       </c>
       <c r="O13" t="n">
         <v>16.4</v>
@@ -2710,22 +2777,22 @@
         <v>0.6860000000000001</v>
       </c>
       <c r="R13" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S13" t="n">
         <v>29.6</v>
       </c>
       <c r="T13" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="U13" t="n">
         <v>21</v>
       </c>
       <c r="V13" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="W13" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X13" t="n">
         <v>4.7</v>
@@ -2734,28 +2801,28 @@
         <v>4.4</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AA13" t="n">
         <v>21.7</v>
       </c>
       <c r="AB13" t="n">
-        <v>97.2</v>
+        <v>97</v>
       </c>
       <c r="AC13" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AD13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE13" t="n">
         <v>8</v>
       </c>
-      <c r="AE13" t="n">
-        <v>7</v>
-      </c>
       <c r="AF13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH13" t="n">
         <v>7</v>
@@ -2776,7 +2843,7 @@
         <v>5</v>
       </c>
       <c r="AN13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO13" t="n">
         <v>17</v>
@@ -2788,13 +2855,13 @@
         <v>29</v>
       </c>
       <c r="AR13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS13" t="n">
         <v>26</v>
       </c>
       <c r="AT13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU13" t="n">
         <v>14</v>
@@ -2806,7 +2873,7 @@
         <v>11</v>
       </c>
       <c r="AX13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY13" t="n">
         <v>6</v>
@@ -2818,7 +2885,7 @@
         <v>4</v>
       </c>
       <c r="BB13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC13" t="n">
         <v>9</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-31-2011-12</t>
+          <t>2012-03-31</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E14" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" t="n">
         <v>20</v>
       </c>
       <c r="G14" t="n">
-        <v>0.615</v>
+        <v>0.608</v>
       </c>
       <c r="H14" t="n">
         <v>48.6</v>
@@ -2868,16 +2935,16 @@
         <v>36.1</v>
       </c>
       <c r="J14" t="n">
-        <v>79.40000000000001</v>
+        <v>79.5</v>
       </c>
       <c r="K14" t="n">
-        <v>0.454</v>
+        <v>0.455</v>
       </c>
       <c r="L14" t="n">
         <v>5.4</v>
       </c>
       <c r="M14" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="N14" t="n">
         <v>0.313</v>
@@ -2892,16 +2959,16 @@
         <v>0.758</v>
       </c>
       <c r="R14" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S14" t="n">
-        <v>34</v>
+        <v>33.9</v>
       </c>
       <c r="T14" t="n">
         <v>45.6</v>
       </c>
       <c r="U14" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V14" t="n">
         <v>15.3</v>
@@ -2913,37 +2980,37 @@
         <v>5.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z14" t="n">
-        <v>17.3</v>
+        <v>17.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>95.8</v>
+        <v>96</v>
       </c>
       <c r="AC14" t="n">
         <v>2.3</v>
       </c>
       <c r="AD14" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AE14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF14" t="n">
         <v>5</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH14" t="n">
         <v>6</v>
       </c>
       <c r="AI14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ14" t="n">
         <v>23</v>
@@ -2967,10 +3034,10 @@
         <v>9</v>
       </c>
       <c r="AQ14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS14" t="n">
         <v>1</v>
@@ -2979,7 +3046,7 @@
         <v>2</v>
       </c>
       <c r="AU14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV14" t="n">
         <v>19</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-31-2011-12</t>
+          <t>2012-03-31</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F15" t="n">
         <v>22</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.551</v>
       </c>
       <c r="H15" t="n">
         <v>48.4</v>
@@ -3050,7 +3117,7 @@
         <v>37</v>
       </c>
       <c r="J15" t="n">
-        <v>82.7</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K15" t="n">
         <v>0.447</v>
@@ -3062,34 +3129,34 @@
         <v>12</v>
       </c>
       <c r="N15" t="n">
-        <v>0.316</v>
+        <v>0.317</v>
       </c>
       <c r="O15" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="P15" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="Q15" t="n">
         <v>0.753</v>
       </c>
       <c r="R15" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="S15" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="T15" t="n">
-        <v>42.3</v>
+        <v>42</v>
       </c>
       <c r="U15" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="V15" t="n">
         <v>14.7</v>
       </c>
       <c r="W15" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="X15" t="n">
         <v>5.2</v>
@@ -3098,22 +3165,22 @@
         <v>5.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="AA15" t="n">
         <v>19.9</v>
       </c>
       <c r="AB15" t="n">
-        <v>95.2</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF15" t="n">
         <v>9</v>
@@ -3149,19 +3216,19 @@
         <v>13</v>
       </c>
       <c r="AQ15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR15" t="n">
         <v>7</v>
       </c>
       <c r="AS15" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AT15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV15" t="n">
         <v>14</v>
@@ -3176,7 +3243,7 @@
         <v>23</v>
       </c>
       <c r="AZ15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA15" t="n">
         <v>15</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-31-2011-12</t>
+          <t>2012-03-31</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>7.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3340,7 +3407,7 @@
         <v>10</v>
       </c>
       <c r="AT16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU16" t="n">
         <v>15</v>
@@ -3364,7 +3431,7 @@
         <v>7</v>
       </c>
       <c r="BB16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC16" t="n">
         <v>2</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-31-2011-12</t>
+          <t>2012-03-31</t>
         </is>
       </c>
     </row>
@@ -3396,22 +3463,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" t="n">
         <v>24</v>
       </c>
       <c r="F17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G17" t="n">
-        <v>0.462</v>
+        <v>0.471</v>
       </c>
       <c r="H17" t="n">
         <v>48.1</v>
       </c>
       <c r="I17" t="n">
-        <v>37.6</v>
+        <v>37.7</v>
       </c>
       <c r="J17" t="n">
         <v>85.7</v>
@@ -3420,28 +3487,28 @@
         <v>0.439</v>
       </c>
       <c r="L17" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M17" t="n">
         <v>19.8</v>
       </c>
       <c r="N17" t="n">
-        <v>0.346</v>
+        <v>0.347</v>
       </c>
       <c r="O17" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="P17" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="Q17" t="n">
         <v>0.787</v>
       </c>
       <c r="R17" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="S17" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="T17" t="n">
         <v>41.8</v>
@@ -3453,7 +3520,7 @@
         <v>13.9</v>
       </c>
       <c r="W17" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X17" t="n">
         <v>4.8</v>
@@ -3465,16 +3532,16 @@
         <v>19.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="AB17" t="n">
-        <v>98.40000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AE17" t="n">
         <v>20</v>
@@ -3486,10 +3553,10 @@
         <v>20</v>
       </c>
       <c r="AH17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI17" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AJ17" t="n">
         <v>2</v>
@@ -3507,7 +3574,7 @@
         <v>14</v>
       </c>
       <c r="AO17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP17" t="n">
         <v>23</v>
@@ -3516,7 +3583,7 @@
         <v>4</v>
       </c>
       <c r="AR17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS17" t="n">
         <v>27</v>
@@ -3531,7 +3598,7 @@
         <v>4</v>
       </c>
       <c r="AW17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX17" t="n">
         <v>19</v>
@@ -3540,10 +3607,10 @@
         <v>10</v>
       </c>
       <c r="AZ17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA17" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BB17" t="n">
         <v>7</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-31-2011-12</t>
+          <t>2012-03-31</t>
         </is>
       </c>
     </row>
@@ -3656,19 +3723,19 @@
         <v>-0.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE18" t="n">
         <v>18</v>
       </c>
       <c r="AF18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG18" t="n">
         <v>19</v>
       </c>
       <c r="AH18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI18" t="n">
         <v>19</v>
@@ -3698,7 +3765,7 @@
         <v>9</v>
       </c>
       <c r="AR18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS18" t="n">
         <v>8</v>
@@ -3716,7 +3783,7 @@
         <v>25</v>
       </c>
       <c r="AX18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY18" t="n">
         <v>22</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-31-2011-12</t>
+          <t>2012-03-31</t>
         </is>
       </c>
     </row>
@@ -3760,28 +3827,28 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F19" t="n">
         <v>35</v>
       </c>
       <c r="G19" t="n">
-        <v>0.352</v>
+        <v>0.34</v>
       </c>
       <c r="H19" t="n">
         <v>48.1</v>
       </c>
       <c r="I19" t="n">
-        <v>34</v>
+        <v>33.8</v>
       </c>
       <c r="J19" t="n">
-        <v>79.90000000000001</v>
+        <v>79.7</v>
       </c>
       <c r="K19" t="n">
-        <v>0.425</v>
+        <v>0.424</v>
       </c>
       <c r="L19" t="n">
         <v>8.1</v>
@@ -3802,22 +3869,22 @@
         <v>0.77</v>
       </c>
       <c r="R19" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="S19" t="n">
-        <v>28.2</v>
+        <v>28.1</v>
       </c>
       <c r="T19" t="n">
-        <v>40.4</v>
+        <v>40.2</v>
       </c>
       <c r="U19" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="V19" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="W19" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X19" t="n">
         <v>4.1</v>
@@ -3832,10 +3899,10 @@
         <v>19.8</v>
       </c>
       <c r="AB19" t="n">
-        <v>93.09999999999999</v>
+        <v>92.8</v>
       </c>
       <c r="AC19" t="n">
-        <v>-5.5</v>
+        <v>-5.8</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -3847,10 +3914,10 @@
         <v>26</v>
       </c>
       <c r="AG19" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AH19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI19" t="n">
         <v>29</v>
@@ -3862,7 +3929,7 @@
         <v>28</v>
       </c>
       <c r="AL19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM19" t="n">
         <v>2</v>
@@ -3880,7 +3947,7 @@
         <v>11</v>
       </c>
       <c r="AR19" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS19" t="n">
         <v>29</v>
@@ -3889,19 +3956,19 @@
         <v>26</v>
       </c>
       <c r="AU19" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AV19" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AW19" t="n">
         <v>17</v>
       </c>
       <c r="AX19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY19" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ19" t="n">
         <v>11</v>
@@ -3910,10 +3977,10 @@
         <v>16</v>
       </c>
       <c r="BB19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC19" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-31-2011-12</t>
+          <t>2012-03-31</t>
         </is>
       </c>
     </row>
@@ -3942,28 +4009,28 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
       </c>
       <c r="F20" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G20" t="n">
-        <v>0.25</v>
+        <v>0.255</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="J20" t="n">
-        <v>78.40000000000001</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L20" t="n">
         <v>3.9</v>
@@ -3972,37 +4039,37 @@
         <v>11.8</v>
       </c>
       <c r="N20" t="n">
-        <v>0.33</v>
+        <v>0.332</v>
       </c>
       <c r="O20" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="P20" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.758</v>
+        <v>0.76</v>
       </c>
       <c r="R20" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="S20" t="n">
         <v>29.9</v>
       </c>
       <c r="T20" t="n">
-        <v>41.2</v>
+        <v>41.1</v>
       </c>
       <c r="U20" t="n">
         <v>20.8</v>
       </c>
       <c r="V20" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W20" t="n">
         <v>7.1</v>
       </c>
       <c r="X20" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y20" t="n">
         <v>5.9</v>
@@ -4011,16 +4078,16 @@
         <v>20.2</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="AB20" t="n">
         <v>89.2</v>
       </c>
       <c r="AC20" t="n">
-        <v>-4.5</v>
+        <v>-4.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
@@ -4032,7 +4099,7 @@
         <v>28</v>
       </c>
       <c r="AH20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI20" t="n">
         <v>24</v>
@@ -4041,7 +4108,7 @@
         <v>28</v>
       </c>
       <c r="AK20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL20" t="n">
         <v>28</v>
@@ -4053,13 +4120,13 @@
         <v>22</v>
       </c>
       <c r="AO20" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AP20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR20" t="n">
         <v>16</v>
@@ -4074,7 +4141,7 @@
         <v>17</v>
       </c>
       <c r="AV20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW20" t="n">
         <v>22</v>
@@ -4083,10 +4150,10 @@
         <v>20</v>
       </c>
       <c r="AY20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA20" t="n">
         <v>27</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-31-2011-12</t>
+          <t>2012-03-31</t>
         </is>
       </c>
     </row>
@@ -4124,34 +4191,34 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F21" t="n">
         <v>26</v>
       </c>
       <c r="G21" t="n">
-        <v>0.509</v>
+        <v>0.5</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>35.3</v>
+        <v>35.4</v>
       </c>
       <c r="J21" t="n">
-        <v>80.8</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0.437</v>
+        <v>0.438</v>
       </c>
       <c r="L21" t="n">
         <v>7.1</v>
       </c>
       <c r="M21" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="N21" t="n">
         <v>0.315</v>
@@ -4160,22 +4227,22 @@
         <v>19.3</v>
       </c>
       <c r="P21" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.745</v>
+        <v>0.746</v>
       </c>
       <c r="R21" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S21" t="n">
         <v>30.9</v>
       </c>
       <c r="T21" t="n">
-        <v>42.6</v>
+        <v>42.5</v>
       </c>
       <c r="U21" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="V21" t="n">
         <v>16.6</v>
@@ -4196,22 +4263,22 @@
         <v>22.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>97.09999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="AC21" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH21" t="n">
         <v>23</v>
@@ -4220,7 +4287,7 @@
         <v>21</v>
       </c>
       <c r="AJ21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK21" t="n">
         <v>22</v>
@@ -4229,10 +4296,10 @@
         <v>10</v>
       </c>
       <c r="AM21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO21" t="n">
         <v>6</v>
@@ -4244,16 +4311,16 @@
         <v>21</v>
       </c>
       <c r="AR21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS21" t="n">
         <v>13</v>
       </c>
       <c r="AT21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV21" t="n">
         <v>30</v>
@@ -4265,7 +4332,7 @@
         <v>24</v>
       </c>
       <c r="AY21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ21" t="n">
         <v>24</v>
@@ -4274,10 +4341,10 @@
         <v>2</v>
       </c>
       <c r="BB21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-31-2011-12</t>
+          <t>2012-03-31</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>6.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4411,7 +4478,7 @@
         <v>8</v>
       </c>
       <c r="AM22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-31-2011-12</t>
+          <t>2012-03-31</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>1.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE23" t="n">
         <v>5</v>
@@ -4599,7 +4666,7 @@
         <v>3</v>
       </c>
       <c r="AO23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP23" t="n">
         <v>11</v>
@@ -4635,7 +4702,7 @@
         <v>5</v>
       </c>
       <c r="BA23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB23" t="n">
         <v>21</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-31-2011-12</t>
+          <t>2012-03-31</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F24" t="n">
         <v>23</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.549</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
@@ -4688,7 +4755,7 @@
         <v>37.6</v>
       </c>
       <c r="J24" t="n">
-        <v>83.90000000000001</v>
+        <v>84</v>
       </c>
       <c r="K24" t="n">
         <v>0.448</v>
@@ -4697,19 +4764,19 @@
         <v>5.5</v>
       </c>
       <c r="M24" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="N24" t="n">
-        <v>0.369</v>
+        <v>0.367</v>
       </c>
       <c r="O24" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="P24" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.734</v>
+        <v>0.733</v>
       </c>
       <c r="R24" t="n">
         <v>10.6</v>
@@ -4727,7 +4794,7 @@
         <v>11</v>
       </c>
       <c r="W24" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X24" t="n">
         <v>4.9</v>
@@ -4739,37 +4806,37 @@
         <v>17.7</v>
       </c>
       <c r="AA24" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="AB24" t="n">
         <v>93.59999999999999</v>
       </c>
       <c r="AC24" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AE24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG24" t="n">
         <v>13</v>
       </c>
       <c r="AH24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ24" t="n">
         <v>4</v>
       </c>
       <c r="AK24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL24" t="n">
         <v>22</v>
@@ -4796,7 +4863,7 @@
         <v>2</v>
       </c>
       <c r="AT24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU24" t="n">
         <v>8</v>
@@ -4805,13 +4872,13 @@
         <v>1</v>
       </c>
       <c r="AW24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX24" t="n">
         <v>17</v>
       </c>
       <c r="AY24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ24" t="n">
         <v>4</v>
@@ -4820,7 +4887,7 @@
         <v>30</v>
       </c>
       <c r="BB24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC24" t="n">
         <v>4</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-31-2011-12</t>
+          <t>2012-03-31</t>
         </is>
       </c>
     </row>
@@ -4930,13 +4997,13 @@
         <v>-0.9</v>
       </c>
       <c r="AD25" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AE25" t="n">
         <v>18</v>
       </c>
       <c r="AF25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG25" t="n">
         <v>18</v>
@@ -4945,7 +5012,7 @@
         <v>30</v>
       </c>
       <c r="AI25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ25" t="n">
         <v>11</v>
@@ -4969,13 +5036,13 @@
         <v>22</v>
       </c>
       <c r="AQ25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR25" t="n">
         <v>21</v>
       </c>
       <c r="AS25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT25" t="n">
         <v>21</v>
@@ -4984,7 +5051,7 @@
         <v>5</v>
       </c>
       <c r="AV25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW25" t="n">
         <v>27</v>
@@ -4999,7 +5066,7 @@
         <v>7</v>
       </c>
       <c r="BA25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB25" t="n">
         <v>15</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-31-2011-12</t>
+          <t>2012-03-31</t>
         </is>
       </c>
     </row>
@@ -5112,16 +5179,16 @@
         <v>0.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE26" t="n">
         <v>20</v>
       </c>
       <c r="AF26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH26" t="n">
         <v>12</v>
@@ -5157,7 +5224,7 @@
         <v>18</v>
       </c>
       <c r="AS26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT26" t="n">
         <v>25</v>
@@ -5169,7 +5236,7 @@
         <v>11</v>
       </c>
       <c r="AW26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX26" t="n">
         <v>15</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-31-2011-12</t>
+          <t>2012-03-31</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E27" t="n">
         <v>18</v>
       </c>
       <c r="F27" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G27" t="n">
-        <v>0.346</v>
+        <v>0.353</v>
       </c>
       <c r="H27" t="n">
         <v>48.3</v>
@@ -5240,22 +5307,22 @@
         <v>0.43</v>
       </c>
       <c r="L27" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="M27" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="N27" t="n">
-        <v>0.313</v>
+        <v>0.316</v>
       </c>
       <c r="O27" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="P27" t="n">
         <v>23.6</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.749</v>
+        <v>0.748</v>
       </c>
       <c r="R27" t="n">
         <v>13.7</v>
@@ -5270,7 +5337,7 @@
         <v>18.8</v>
       </c>
       <c r="V27" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W27" t="n">
         <v>8.300000000000001</v>
@@ -5282,7 +5349,7 @@
         <v>6.3</v>
       </c>
       <c r="Z27" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AA27" t="n">
         <v>20.5</v>
@@ -5291,25 +5358,25 @@
         <v>98.40000000000001</v>
       </c>
       <c r="AC27" t="n">
-        <v>-5.6</v>
+        <v>-5.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AE27" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AF27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG27" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AH27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ27" t="n">
         <v>1</v>
@@ -5321,10 +5388,10 @@
         <v>17</v>
       </c>
       <c r="AM27" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AN27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO27" t="n">
         <v>10</v>
@@ -5339,10 +5406,10 @@
         <v>2</v>
       </c>
       <c r="AS27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU27" t="n">
         <v>26</v>
@@ -5351,16 +5418,16 @@
         <v>15</v>
       </c>
       <c r="AW27" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AX27" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AY27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA27" t="n">
         <v>9</v>
@@ -5369,7 +5436,7 @@
         <v>8</v>
       </c>
       <c r="BC27" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-31-2011-12</t>
+          <t>2012-03-31</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E28" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F28" t="n">
         <v>14</v>
       </c>
       <c r="G28" t="n">
-        <v>0.72</v>
+        <v>0.714</v>
       </c>
       <c r="H28" t="n">
         <v>48.4</v>
@@ -5416,7 +5483,7 @@
         <v>38.9</v>
       </c>
       <c r="J28" t="n">
-        <v>83</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K28" t="n">
         <v>0.468</v>
@@ -5425,28 +5492,28 @@
         <v>8.199999999999999</v>
       </c>
       <c r="M28" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="N28" t="n">
-        <v>0.389</v>
+        <v>0.387</v>
       </c>
       <c r="O28" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="P28" t="n">
-        <v>21.4</v>
+        <v>21.1</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.727</v>
+        <v>0.724</v>
       </c>
       <c r="R28" t="n">
         <v>10.4</v>
       </c>
       <c r="S28" t="n">
-        <v>32.1</v>
+        <v>32.2</v>
       </c>
       <c r="T28" t="n">
-        <v>42.5</v>
+        <v>42.6</v>
       </c>
       <c r="U28" t="n">
         <v>22.6</v>
@@ -5461,22 +5528,22 @@
         <v>4.3</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z28" t="n">
         <v>17.3</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AB28" t="n">
-        <v>101.4</v>
+        <v>101.2</v>
       </c>
       <c r="AC28" t="n">
         <v>4.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE28" t="n">
         <v>4</v>
@@ -5494,7 +5561,7 @@
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AK28" t="n">
         <v>4</v>
@@ -5509,7 +5576,7 @@
         <v>1</v>
       </c>
       <c r="AO28" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AP28" t="n">
         <v>21</v>
@@ -5524,7 +5591,7 @@
         <v>7</v>
       </c>
       <c r="AT28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
@@ -5539,7 +5606,7 @@
         <v>25</v>
       </c>
       <c r="AY28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ28" t="n">
         <v>2</v>
@@ -5548,7 +5615,7 @@
         <v>21</v>
       </c>
       <c r="BB28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC28" t="n">
         <v>5</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-31-2011-12</t>
+          <t>2012-03-31</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-3.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE29" t="n">
         <v>26</v>
@@ -5670,7 +5737,7 @@
         <v>27</v>
       </c>
       <c r="AH29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI29" t="n">
         <v>25</v>
@@ -5706,13 +5773,13 @@
         <v>14</v>
       </c>
       <c r="AT29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU29" t="n">
         <v>12</v>
       </c>
       <c r="AV29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW29" t="n">
         <v>26</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-31-2011-12</t>
+          <t>2012-03-31</t>
         </is>
       </c>
     </row>
@@ -5762,25 +5829,25 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E30" t="n">
         <v>27</v>
       </c>
       <c r="F30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G30" t="n">
-        <v>0.509</v>
+        <v>0.519</v>
       </c>
       <c r="H30" t="n">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="I30" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="J30" t="n">
-        <v>84.09999999999999</v>
+        <v>84.2</v>
       </c>
       <c r="K30" t="n">
         <v>0.454</v>
@@ -5795,22 +5862,22 @@
         <v>0.307</v>
       </c>
       <c r="O30" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="P30" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.749</v>
+        <v>0.75</v>
       </c>
       <c r="R30" t="n">
         <v>13.2</v>
       </c>
       <c r="S30" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="T30" t="n">
-        <v>43.9</v>
+        <v>44</v>
       </c>
       <c r="U30" t="n">
         <v>21.7</v>
@@ -5819,7 +5886,7 @@
         <v>14.1</v>
       </c>
       <c r="W30" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X30" t="n">
         <v>5.8</v>
@@ -5828,22 +5895,22 @@
         <v>5.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="AA30" t="n">
         <v>20.8</v>
       </c>
       <c r="AB30" t="n">
-        <v>98.8</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF30" t="n">
         <v>16</v>
@@ -5885,19 +5952,19 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AT30" t="n">
         <v>4</v>
       </c>
       <c r="AU30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV30" t="n">
         <v>10</v>
       </c>
       <c r="AW30" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AX30" t="n">
         <v>4</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-31-2011-12</t>
+          <t>2012-03-31</t>
         </is>
       </c>
     </row>
@@ -6022,13 +6089,13 @@
         <v>-6.7</v>
       </c>
       <c r="AD31" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
       </c>
       <c r="AF31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG31" t="n">
         <v>29</v>
@@ -6040,10 +6107,10 @@
         <v>16</v>
       </c>
       <c r="AJ31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL31" t="n">
         <v>25</v>
@@ -6055,7 +6122,7 @@
         <v>24</v>
       </c>
       <c r="AO31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP31" t="n">
         <v>19</v>
@@ -6064,7 +6131,7 @@
         <v>27</v>
       </c>
       <c r="AR31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS31" t="n">
         <v>20</v>
@@ -6076,7 +6143,7 @@
         <v>29</v>
       </c>
       <c r="AV31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW31" t="n">
         <v>15</v>
@@ -6094,7 +6161,7 @@
         <v>24</v>
       </c>
       <c r="BB31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC31" t="n">
         <v>29</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-31-2011-12</t>
+          <t>2012-03-31</t>
         </is>
       </c>
     </row>
